--- a/Mapeado Pines.xlsx
+++ b/Mapeado Pines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t xml:space="preserve">MAQUETA</t>
   </si>
@@ -145,43 +145,40 @@
     <t xml:space="preserve">PL1</t>
   </si>
   <si>
+    <t xml:space="preserve">M2_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3_di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL7</t>
+  </si>
+  <si>
     <t xml:space="preserve">SO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_dii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL7</t>
   </si>
   <si>
     <t xml:space="preserve">L1</t>
@@ -543,17 +540,17 @@
   <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -892,13 +889,11 @@
       <c r="K14" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>21</v>
@@ -907,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7" t="s">
@@ -917,10 +912,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="K15" s="11" t="n">
         <v>22</v>
@@ -931,7 +926,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>23</v>
@@ -940,26 +935,26 @@
         <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="8" t="n">
         <v>23</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="K16" s="11" t="n">
         <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,31 +968,31 @@
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H17" s="8" t="n">
         <v>25</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17" s="11" t="n">
         <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>27</v>
@@ -1006,7 +1001,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="7" t="s">
@@ -1016,10 +1011,10 @@
         <v>27</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="K18" s="11" t="n">
         <v>28</v>
@@ -1030,7 +1025,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>29</v>
@@ -1039,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="7"/>
@@ -1047,10 +1042,10 @@
         <v>29</v>
       </c>
       <c r="I19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="K19" s="11" t="n">
         <v>30</v>
@@ -1059,7 +1054,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>31</v>
@@ -1068,18 +1063,20 @@
         <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="H20" s="8" t="n">
         <v>31</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="K20" s="11" t="n">
         <v>32</v>
@@ -1088,7 +1085,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>33</v>
@@ -1097,7 +1094,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="7"/>
@@ -1105,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="I21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="K21" s="11" t="n">
         <v>34</v>

--- a/Mapeado Pines.xlsx
+++ b/Mapeado Pines.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Trabajos\Micros\Notas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="8085" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,241 +24,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">MAQUETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5_bk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+  <si>
+    <t>MAQUETA</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>DIR1</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>SW9</t>
+  </si>
+  <si>
+    <t>DIR2</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>PK0</t>
+  </si>
+  <si>
+    <t>PK1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>PK2</t>
+  </si>
+  <si>
+    <t>PK3</t>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>PK4</t>
+  </si>
+  <si>
+    <t>PK5</t>
+  </si>
+  <si>
+    <t>M5_bk</t>
+  </si>
+  <si>
+    <t>M4_en</t>
+  </si>
+  <si>
+    <t>PK6</t>
+  </si>
+  <si>
+    <t>PK7</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>M1_en</t>
+  </si>
+  <si>
+    <t>M1_di</t>
+  </si>
+  <si>
+    <t>SO1</t>
+  </si>
+  <si>
+    <t>PL0</t>
+  </si>
+  <si>
+    <t>PL1</t>
+  </si>
+  <si>
+    <t>M2_en</t>
+  </si>
+  <si>
+    <t>M2_di</t>
+  </si>
+  <si>
+    <t>PL2</t>
+  </si>
+  <si>
+    <t>PL3</t>
+  </si>
+  <si>
+    <t>M3_en</t>
+  </si>
+  <si>
+    <t>M3_di</t>
+  </si>
+  <si>
+    <t>PL4</t>
+  </si>
+  <si>
+    <t>PL5</t>
+  </si>
+  <si>
+    <t>N.C</t>
+  </si>
+  <si>
+    <t>PL6</t>
+  </si>
+  <si>
+    <t>PL7</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>TF1</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>TF2</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>TF3</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>PD7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -304,171 +290,144 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -527,78 +486,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.66"/>
+    <col min="1" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -607,27 +840,27 @@
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="11">
         <v>2</v>
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="8">
         <v>3</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -636,27 +869,27 @@
       <c r="J6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="11">
         <v>4</v>
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="8">
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -665,27 +898,27 @@
       <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="11">
         <v>6</v>
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="8">
         <v>7</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -694,29 +927,29 @@
       <c r="J8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="11">
         <v>8</v>
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="8">
         <v>9</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -725,31 +958,31 @@
       <c r="J9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="8">
         <v>11</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -758,31 +991,31 @@
       <c r="J10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="11">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="8">
         <v>13</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -791,31 +1024,31 @@
       <c r="J11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="11">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="8">
         <v>15</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -824,60 +1057,60 @@
       <c r="J12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="11">
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>17</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>18</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="8">
         <v>17</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="11">
         <v>18</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>19</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="8">
         <v>19</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -886,29 +1119,29 @@
       <c r="J14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="11">
         <v>20</v>
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>21</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="8">
         <v>21</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -917,31 +1150,31 @@
       <c r="J15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="11">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>23</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="8">
         <v>23</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -950,31 +1183,31 @@
       <c r="J16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="11">
         <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>25</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="8">
         <v>25</v>
       </c>
       <c r="I17" s="14" t="s">
@@ -983,31 +1216,31 @@
       <c r="J17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="11" t="n">
+      <c r="K17" s="11">
         <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="8">
         <v>27</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1016,29 +1249,31 @@
       <c r="J18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="11">
         <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>29</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8" t="n">
+      <c r="F19" s="3"/>
+      <c r="G19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="8">
         <v>29</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -1047,29 +1282,29 @@
       <c r="J19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="11">
         <v>30</v>
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="8">
         <v>31</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -1078,27 +1313,27 @@
       <c r="J20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="11">
         <v>32</v>
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="8">
         <v>33</v>
       </c>
       <c r="I21" s="14" t="s">
@@ -1107,7 +1342,7 @@
       <c r="J21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="11" t="n">
+      <c r="K21" s="11">
         <v>34</v>
       </c>
       <c r="L21" s="7"/>
@@ -1117,12 +1352,7 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:L3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Mapeado Pines.xlsx
+++ b/Mapeado Pines.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>MAQUETA</t>
   </si>
@@ -365,62 +365,62 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +773,7 @@
   <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,565 +787,567 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>2</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>4</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>6</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
         <v>7</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>8</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>9</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>10</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>11</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>13</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>13</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>14</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>15</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>15</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>16</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>18</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>17</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="11">
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="9">
         <v>18</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>19</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>19</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>20</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>21</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>22</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>21</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>22</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>23</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>24</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>23</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>24</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>25</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>25</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>26</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>27</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>28</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>27</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>28</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>29</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>30</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>29</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="9">
         <v>30</v>
       </c>
-      <c r="H19" s="8">
-        <v>29</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="6">
+        <v>31</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="9">
+        <v>32</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="8">
-        <v>31</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="11">
-        <v>32</v>
-      </c>
-      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>33</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>34</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8">
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6">
         <v>33</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>34</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
